--- a/up-athena/src/main/resources/init/data.test.xlsx
+++ b/up-athena/src/main/resources/init/data.test.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/book/vertx-zero-example/up-athena/src/main/resources/init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DF0890-42D7-6C42-BF56-C85D59862083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172E5129-5EF4-3147-A207-E6DB00B15287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="5680" yWindow="8300" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-TABULAR" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -345,6 +348,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DATA-TABULAR"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>sigma-reference</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>appId-reference</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,8 +813,14 @@
       <c r="G5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="8" t="str">
+        <f>'[1]DATA-TABULAR'!$B$1</f>
+        <v>appId-reference</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f>'[1]DATA-TABULAR'!$A$1</f>
+        <v>sigma-reference</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="13"/>
       <c r="L5" s="9"/>
@@ -816,8 +847,14 @@
       <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="8" t="str">
+        <f>'[1]DATA-TABULAR'!$B$1</f>
+        <v>appId-reference</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>'[1]DATA-TABULAR'!$A$1</f>
+        <v>sigma-reference</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="13"/>
       <c r="L6" s="9"/>
@@ -844,8 +881,14 @@
       <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="8" t="str">
+        <f>'[1]DATA-TABULAR'!$B$1</f>
+        <v>appId-reference</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f>'[1]DATA-TABULAR'!$A$1</f>
+        <v>sigma-reference</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="13"/>
       <c r="L7" s="9"/>
@@ -872,8 +915,14 @@
       <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="8" t="str">
+        <f>'[1]DATA-TABULAR'!$B$1</f>
+        <v>appId-reference</v>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f>'[1]DATA-TABULAR'!$A$1</f>
+        <v>sigma-reference</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="13"/>
       <c r="L8" s="9"/>
@@ -900,8 +949,14 @@
       <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="8" t="str">
+        <f>'[1]DATA-TABULAR'!$B$1</f>
+        <v>appId-reference</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f>'[1]DATA-TABULAR'!$A$1</f>
+        <v>sigma-reference</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="13"/>
       <c r="L9" s="9"/>
@@ -928,8 +983,14 @@
       <c r="G10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="8" t="str">
+        <f>'[1]DATA-TABULAR'!$B$1</f>
+        <v>appId-reference</v>
+      </c>
+      <c r="I10" s="6" t="str">
+        <f>'[1]DATA-TABULAR'!$A$1</f>
+        <v>sigma-reference</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="13"/>
       <c r="L10" s="9"/>
@@ -956,8 +1017,14 @@
       <c r="G11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="8" t="str">
+        <f>'[1]DATA-TABULAR'!$B$1</f>
+        <v>appId-reference</v>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f>'[1]DATA-TABULAR'!$A$1</f>
+        <v>sigma-reference</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="13"/>
       <c r="L11" s="9"/>
